--- a/AuthorsListnContributions.xlsx
+++ b/AuthorsListnContributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tnguyen/Downloads/authors-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63A1F0A-5579-9648-A794-10D99EAB7711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772B1E8-6BCE-8848-BECE-0251437DBD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-69320" yWindow="-4120" windowWidth="46720" windowHeight="25320" xr2:uid="{EFA99F9A-E01C-D943-A749-0F518E391E9D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="207">
   <si>
     <t>Authors First name</t>
   </si>
@@ -1152,7 +1152,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42"/>
@@ -1170,6 +1170,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1548,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3084C0-AFB7-434E-BCD5-8A53D6ABEA31}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1735,20 +1738,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F9">
         <v>7</v>
       </c>
@@ -1756,22 +1761,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E10" s="8"/>
       <c r="F10">
         <v>7</v>
       </c>
@@ -1800,20 +1803,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F12">
         <v>6.0875000000000004</v>
       </c>
@@ -1821,22 +1826,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E13" s="8"/>
       <c r="F13">
         <v>6.0875000000000004</v>
       </c>
@@ -1846,10 +1849,10 @@
     </row>
     <row r="14" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -1869,10 +1872,10 @@
     </row>
     <row r="15" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -2016,18 +2019,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22">
@@ -2037,18 +2040,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23">
@@ -2058,18 +2061,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24">
@@ -2121,18 +2124,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27">
@@ -2142,18 +2145,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28">
@@ -2268,18 +2271,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34">
@@ -2291,10 +2294,10 @@
     </row>
     <row r="35" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -2310,18 +2313,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36">
@@ -2375,10 +2378,10 @@
     </row>
     <row r="39" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -2396,20 +2399,20 @@
     </row>
     <row r="40" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40">
-        <v>2.15</v>
+        <v>8</v>
       </c>
       <c r="G40">
         <v>42</v>
@@ -2417,10 +2420,10 @@
     </row>
     <row r="41" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
@@ -2430,24 +2433,24 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="G41">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42">
@@ -2457,18 +2460,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43">
@@ -2480,10 +2483,10 @@
     </row>
     <row r="44" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
@@ -2501,10 +2504,10 @@
     </row>
     <row r="45" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
@@ -2522,10 +2525,10 @@
     </row>
     <row r="46" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
@@ -2541,18 +2544,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>99</v>
+      <c r="D47" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47">
@@ -2564,16 +2567,16 @@
     </row>
     <row r="48" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48">
@@ -2583,18 +2586,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49">
@@ -2604,18 +2607,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50">
@@ -2625,18 +2628,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51">
@@ -2648,10 +2651,10 @@
     </row>
     <row r="52" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
@@ -2667,18 +2670,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>132</v>
+      <c r="D53" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53">
@@ -2688,39 +2691,39 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>132</v>
+      <c r="D54" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="G54">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>132</v>
+      <c r="D55" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55">
@@ -2730,18 +2733,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>139</v>
+      <c r="D56" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56">
@@ -2751,18 +2754,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57">
@@ -2772,18 +2775,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>132</v>
+      <c r="D58" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58">
@@ -2793,18 +2796,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>132</v>
+      <c r="D59" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59">
@@ -2814,18 +2817,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60">
@@ -2837,16 +2840,16 @@
     </row>
     <row r="61" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61">
@@ -2858,16 +2861,16 @@
     </row>
     <row r="62" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62">
@@ -2879,16 +2882,16 @@
     </row>
     <row r="63" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63">
@@ -2900,10 +2903,10 @@
     </row>
     <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -2919,18 +2922,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>160</v>
+      <c r="D65" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65">
@@ -2940,22 +2943,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="8"/>
+      <c r="D66" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="F66">
-        <v>2.0499999999999998</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <v>59</v>
@@ -2963,16 +2968,16 @@
     </row>
     <row r="67" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67">
@@ -2984,16 +2989,16 @@
     </row>
     <row r="68" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68">
@@ -3005,16 +3010,16 @@
     </row>
     <row r="69" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69">
@@ -3026,10 +3031,10 @@
     </row>
     <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>12</v>
@@ -3047,16 +3052,16 @@
     </row>
     <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71">
@@ -3066,22 +3071,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>177</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E72" s="8"/>
       <c r="F72">
         <v>2.0499999999999998</v>
       </c>
@@ -3089,20 +3092,22 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="F73">
         <v>2.0499999999999998</v>
       </c>
@@ -3112,16 +3117,16 @@
     </row>
     <row r="74" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74">
@@ -3133,16 +3138,16 @@
     </row>
     <row r="75" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75">
@@ -3152,18 +3157,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>189</v>
+      <c r="D76" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76">
@@ -3173,18 +3178,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>176</v>
+      <c r="D77" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77">
@@ -3215,18 +3220,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79">
@@ -3238,10 +3243,10 @@
     </row>
     <row r="80" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
@@ -3257,12 +3262,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>12</v>
@@ -3270,7 +3275,9 @@
       <c r="D81" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E81" s="8"/>
+      <c r="E81" s="8" t="s">
+        <v>206</v>
+      </c>
       <c r="F81">
         <v>2.0499999999999998</v>
       </c>
@@ -3280,16 +3287,16 @@
     </row>
     <row r="82" spans="1:7" ht="43" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82">
@@ -3299,25 +3306,25 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="43" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83">
-        <v>3.7875000000000001</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G83">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="43" x14ac:dyDescent="0.2">
@@ -3341,109 +3348,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="43" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85">
-        <v>5</v>
-      </c>
-      <c r="G85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="43" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86">
-        <v>5</v>
-      </c>
-      <c r="G86">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E87" s="8"/>
-      <c r="F87">
-        <v>5</v>
-      </c>
-      <c r="G87">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="43" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E88" s="8"/>
-      <c r="F88">
-        <v>8</v>
-      </c>
-      <c r="G88">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="29" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E89" s="8"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G85">
-    <sortCondition ref="G2:G85"/>
-    <sortCondition ref="B2:B85"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G84">
+    <sortCondition ref="G2:G84"/>
+    <sortCondition ref="B2:B84"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="mailto:test@email.com" xr:uid="{B44EBB36-0815-204F-9D86-7DC507F98F3A}"/>
@@ -3453,94 +3361,88 @@
     <hyperlink ref="C6" r:id="rId5" display="mailto:test@email.com" xr:uid="{E2B68544-6B97-BE41-A421-65875A053723}"/>
     <hyperlink ref="C7" r:id="rId6" display="mailto:test@email.com" xr:uid="{F5D2454F-CCA3-0349-9B34-0C2ABF6AEFCB}"/>
     <hyperlink ref="C8" r:id="rId7" display="mailto:test@email.com" xr:uid="{1EB429F8-B94B-EC4A-89E4-E910795AD273}"/>
-    <hyperlink ref="C9" r:id="rId8" display="mailto:test@email.com" xr:uid="{CE41A3EA-39C1-764E-97DD-85C397D4F84F}"/>
-    <hyperlink ref="C10" r:id="rId9" display="mailto:test@email.com" xr:uid="{9027C06A-6BAA-2047-B695-00203BE4C4F0}"/>
+    <hyperlink ref="C10" r:id="rId8" display="mailto:test@email.com" xr:uid="{CE41A3EA-39C1-764E-97DD-85C397D4F84F}"/>
+    <hyperlink ref="C9" r:id="rId9" display="mailto:test@email.com" xr:uid="{9027C06A-6BAA-2047-B695-00203BE4C4F0}"/>
     <hyperlink ref="C11" r:id="rId10" display="mailto:test@email.com" xr:uid="{A7E9D6CE-B9D9-6E46-B15F-86FFC3FD7ECE}"/>
-    <hyperlink ref="C12" r:id="rId11" display="mailto:test@email.com" xr:uid="{B12565C0-AA5D-DA4D-B497-7F17FE8CC199}"/>
-    <hyperlink ref="C13" r:id="rId12" display="mailto:test@email.com" xr:uid="{7AC9FDE5-3716-6245-9A01-6A637BD40C2B}"/>
-    <hyperlink ref="C14" r:id="rId13" display="mailto:test@email.com" xr:uid="{3C12DD49-666A-7246-BF02-BA7F06AC03DF}"/>
-    <hyperlink ref="C15" r:id="rId14" display="mailto:test@email.com" xr:uid="{DE19DC59-5DD7-F843-807F-9C7D3CBF4526}"/>
+    <hyperlink ref="C13" r:id="rId11" display="mailto:test@email.com" xr:uid="{B12565C0-AA5D-DA4D-B497-7F17FE8CC199}"/>
+    <hyperlink ref="C12" r:id="rId12" display="mailto:test@email.com" xr:uid="{7AC9FDE5-3716-6245-9A01-6A637BD40C2B}"/>
+    <hyperlink ref="C15" r:id="rId13" display="mailto:test@email.com" xr:uid="{3C12DD49-666A-7246-BF02-BA7F06AC03DF}"/>
+    <hyperlink ref="C14" r:id="rId14" display="mailto:test@email.com" xr:uid="{DE19DC59-5DD7-F843-807F-9C7D3CBF4526}"/>
     <hyperlink ref="C16" r:id="rId15" display="mailto:test@email.com" xr:uid="{6DF1B36D-3DEE-CF47-A931-487EAFFE5312}"/>
     <hyperlink ref="C17" r:id="rId16" display="mailto:test@email.com" xr:uid="{7D47EEF6-FAC1-1F42-B536-D9E91F8BCAAC}"/>
     <hyperlink ref="C18" r:id="rId17" display="mailto:test@email.com" xr:uid="{0BDA6D08-1048-3849-928D-3A452333671C}"/>
     <hyperlink ref="C19" r:id="rId18" display="mailto:test@email.com" xr:uid="{656DC6AC-4449-1E47-9EB3-66EE7C38DBDE}"/>
     <hyperlink ref="C20" r:id="rId19" display="mailto:test@email.com" xr:uid="{3EDFD837-9280-B347-B38D-FC1163E038DA}"/>
     <hyperlink ref="C21" r:id="rId20" display="mailto:test@email.com" xr:uid="{C90ACF38-EDC9-3B4C-89A3-7669C35A2F0D}"/>
-    <hyperlink ref="C22" r:id="rId21" display="mailto:test@email.com" xr:uid="{DCE9FC79-15AE-5F48-9EBE-92BDF51ADCCF}"/>
-    <hyperlink ref="C23" r:id="rId22" display="mailto:test@email.com" xr:uid="{0B9E2513-E360-C741-A286-2268B06E45A9}"/>
-    <hyperlink ref="C24" r:id="rId23" display="mailto:test@email.com" xr:uid="{A507BFA1-5A76-D34B-9B87-765839B4ED0B}"/>
+    <hyperlink ref="C23" r:id="rId21" display="mailto:test@email.com" xr:uid="{DCE9FC79-15AE-5F48-9EBE-92BDF51ADCCF}"/>
+    <hyperlink ref="C24" r:id="rId22" display="mailto:test@email.com" xr:uid="{0B9E2513-E360-C741-A286-2268B06E45A9}"/>
+    <hyperlink ref="C22" r:id="rId23" display="mailto:test@email.com" xr:uid="{A507BFA1-5A76-D34B-9B87-765839B4ED0B}"/>
     <hyperlink ref="C25" r:id="rId24" display="mailto:test@email.com" xr:uid="{0C0E2A64-1F6D-1D47-963A-6AC0CA8EECA3}"/>
     <hyperlink ref="C26" r:id="rId25" display="mailto:test@email.com" xr:uid="{46E26A27-2027-5340-B417-DB69729CDE18}"/>
-    <hyperlink ref="C27" r:id="rId26" display="mailto:test@email.com" xr:uid="{D7FE3465-116B-564A-9645-EFC1C87575C3}"/>
-    <hyperlink ref="C28" r:id="rId27" display="mailto:test@email.com" xr:uid="{CFC0556A-0B7C-CA43-831E-67EC2720A771}"/>
+    <hyperlink ref="C28" r:id="rId26" display="mailto:test@email.com" xr:uid="{D7FE3465-116B-564A-9645-EFC1C87575C3}"/>
+    <hyperlink ref="C27" r:id="rId27" display="mailto:test@email.com" xr:uid="{CFC0556A-0B7C-CA43-831E-67EC2720A771}"/>
     <hyperlink ref="C29" r:id="rId28" display="mailto:test@email.com" xr:uid="{CB5A5779-A00B-A640-92F0-422BA09A9F55}"/>
     <hyperlink ref="C30" r:id="rId29" display="mailto:test@email.com" xr:uid="{4B2CD8FC-67C5-194E-88F9-07BB02D3C763}"/>
     <hyperlink ref="C31" r:id="rId30" display="mailto:test@email.com" xr:uid="{BB97F573-C380-D04F-B13C-FA76FFC71E07}"/>
     <hyperlink ref="C32" r:id="rId31" display="mailto:test@email.com" xr:uid="{2136313F-5492-8C4C-B0DA-C3040784C7A6}"/>
     <hyperlink ref="C33" r:id="rId32" display="mailto:test@email.com" xr:uid="{6A953337-59CC-8F47-9581-06EE51C72ABB}"/>
-    <hyperlink ref="C34" r:id="rId33" display="mailto:test@email.com" xr:uid="{091BB16F-1BBE-8743-9587-7D200EB28365}"/>
-    <hyperlink ref="C35" r:id="rId34" display="mailto:test@email.com" xr:uid="{B9E43D6F-F1AC-BA4C-A26B-BA33F48826A8}"/>
-    <hyperlink ref="C36" r:id="rId35" display="mailto:test@email.com" xr:uid="{A66BE306-5A4D-8747-AB88-2E09B142D213}"/>
+    <hyperlink ref="C36" r:id="rId33" display="mailto:test@email.com" xr:uid="{091BB16F-1BBE-8743-9587-7D200EB28365}"/>
+    <hyperlink ref="C34" r:id="rId34" display="mailto:test@email.com" xr:uid="{B9E43D6F-F1AC-BA4C-A26B-BA33F48826A8}"/>
+    <hyperlink ref="C35" r:id="rId35" display="mailto:test@email.com" xr:uid="{A66BE306-5A4D-8747-AB88-2E09B142D213}"/>
     <hyperlink ref="C37" r:id="rId36" display="mailto:test@email.com" xr:uid="{A0DCE9FE-8F55-594A-A225-679A09E6F68B}"/>
     <hyperlink ref="C38" r:id="rId37" display="mailto:test@email.com" xr:uid="{7AFD8D2D-BA3C-434C-B5FD-E687F83E9644}"/>
-    <hyperlink ref="C39" r:id="rId38" display="mailto:test@email.com" xr:uid="{575FF762-EB9D-DB45-8BAC-55069A40F14C}"/>
-    <hyperlink ref="C40" r:id="rId39" display="mailto:test@email.com" xr:uid="{C8B3BDCD-D191-3449-9315-095D53732AB5}"/>
-    <hyperlink ref="C41" r:id="rId40" display="mailto:test@email.com" xr:uid="{936FDA4A-AF04-2548-808B-8396555B0BF5}"/>
-    <hyperlink ref="C42" r:id="rId41" display="mailto:test@email.com" xr:uid="{4BEC560B-A05F-744B-BB4D-E6E1ED8056D0}"/>
-    <hyperlink ref="C43" r:id="rId42" display="mailto:test@email.com" xr:uid="{9622F532-DD74-6C4D-BE48-372E60B4A1E0}"/>
-    <hyperlink ref="C44" r:id="rId43" display="mailto:test@email.com" xr:uid="{E3435AEC-0C4A-4140-A197-2E66DBAF4F29}"/>
-    <hyperlink ref="C45" r:id="rId44" display="mailto:test@email.com" xr:uid="{EA456731-3C3D-304D-80D5-BAAEAA07B06A}"/>
-    <hyperlink ref="C46" r:id="rId45" display="mailto:test@email.com" xr:uid="{00F54B0F-3DCA-3D4C-A8BD-41F0B87FDE79}"/>
-    <hyperlink ref="C47" r:id="rId46" display="mailto:test@email.com" xr:uid="{92F0A6DB-A7C7-9247-AA30-B693C52FE667}"/>
-    <hyperlink ref="C48" r:id="rId47" display="mailto:test@email.com" xr:uid="{B4AFADC3-6A97-EA45-B0B5-DBD5F83623D7}"/>
-    <hyperlink ref="C49" r:id="rId48" display="mailto:test@email.com" xr:uid="{1FCD48BF-FEDC-C248-9B1D-C8E7C1561119}"/>
-    <hyperlink ref="C50" r:id="rId49" display="mailto:test@email.com" xr:uid="{8AA48E33-8D02-854F-869B-93D174255C83}"/>
-    <hyperlink ref="C51" r:id="rId50" display="mailto:test@email.com" xr:uid="{BA4F0837-CC0F-CB4C-A522-4A8DFA4C7090}"/>
-    <hyperlink ref="C52" r:id="rId51" display="mailto:test@email.com" xr:uid="{3B38E15D-95DF-C147-8E9B-F3DEE4C1D333}"/>
-    <hyperlink ref="C53" r:id="rId52" display="mailto:test@email.com" xr:uid="{9515FB9D-1E51-1A41-9405-FCB7A14BAF57}"/>
-    <hyperlink ref="D53" r:id="rId53" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{86259E9C-B550-7C40-B374-9652D80CD501}"/>
-    <hyperlink ref="C54" r:id="rId54" display="mailto:test@email.com" xr:uid="{E1286563-BEA8-634E-893C-35738F965078}"/>
-    <hyperlink ref="D54" r:id="rId55" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{B47938C3-00A9-E94C-BA86-5788FEB1F7B3}"/>
-    <hyperlink ref="C55" r:id="rId56" display="mailto:test@email.com" xr:uid="{3DF87A8E-7617-5C44-99FB-3C5A26C337DC}"/>
-    <hyperlink ref="D55" r:id="rId57" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{901A139E-5F88-2C4E-9475-337325733170}"/>
-    <hyperlink ref="C56" r:id="rId58" display="mailto:test@email.com" xr:uid="{1AA0566D-8BDA-D84E-B61B-D39628F48B62}"/>
-    <hyperlink ref="C57" r:id="rId59" display="mailto:test@email.com" xr:uid="{DA1E69C6-D65B-B245-8F8A-87CF86810A89}"/>
-    <hyperlink ref="C58" r:id="rId60" display="mailto:test@email.com" xr:uid="{4A5C1E17-AF26-1E41-81A7-80A2DA2D99A6}"/>
-    <hyperlink ref="D58" r:id="rId61" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{F0D93369-088C-AB47-A8AE-4EABC7383A84}"/>
-    <hyperlink ref="C59" r:id="rId62" display="mailto:test@email.com" xr:uid="{59F28D79-7F1B-ED4D-A6D8-2F1FCB72336A}"/>
-    <hyperlink ref="D59" r:id="rId63" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{3FC08CE4-F207-E547-BF6F-E3ACE66F92D9}"/>
-    <hyperlink ref="C60" r:id="rId64" display="mailto:test@email.com" xr:uid="{5AD1F817-474D-A745-9460-F3CA86AC1CFF}"/>
-    <hyperlink ref="D60" r:id="rId65" display="mailto:krzysztof.bartnik@wum.edu.pl" xr:uid="{8D87DAB6-70A5-524E-BA90-6C7ED368F187}"/>
-    <hyperlink ref="C61" r:id="rId66" display="mailto:test@email.com" xr:uid="{1313B23B-7E68-0643-A722-63D5918A04D7}"/>
-    <hyperlink ref="C62" r:id="rId67" display="mailto:test@email.com" xr:uid="{DEECA3DC-C3E8-F84B-A142-88E5B2FAEF73}"/>
-    <hyperlink ref="C63" r:id="rId68" display="mailto:test@email.com" xr:uid="{3B7FA7BC-FB5D-3D48-A8F9-943601B5BC45}"/>
-    <hyperlink ref="C64" r:id="rId69" display="mailto:test@email.com" xr:uid="{5505A470-FBF7-3244-A072-710DBAD1A791}"/>
-    <hyperlink ref="C65" r:id="rId70" display="mailto:test@email.com" xr:uid="{0DAADBED-C975-794F-826A-15F0C305166D}"/>
-    <hyperlink ref="C66" r:id="rId71" display="mailto:test@email.com" xr:uid="{23F780C5-A499-574B-B881-D95C6BF8FE4D}"/>
-    <hyperlink ref="C67" r:id="rId72" display="mailto:test@email.com" xr:uid="{65551331-3B58-714C-AD60-BCAB9B27EFB7}"/>
-    <hyperlink ref="C68" r:id="rId73" display="mailto:test@email.com" xr:uid="{ABAB13FD-1B34-0245-AD82-FB05F2A88B03}"/>
-    <hyperlink ref="C69" r:id="rId74" display="mailto:test@email.com" xr:uid="{ECE10F62-9138-6746-A651-45DD06B44A7D}"/>
-    <hyperlink ref="C70" r:id="rId75" display="mailto:test@email.com" xr:uid="{8A46270F-03C8-414A-9981-671EDF7EA515}"/>
-    <hyperlink ref="C71" r:id="rId76" display="mailto:test@email.com" xr:uid="{E657D74E-37F1-1D46-B098-589F4C0571BF}"/>
-    <hyperlink ref="C72" r:id="rId77" display="mailto:test@email.com" xr:uid="{B41F3327-17ED-214D-89EE-B0A76AF159E7}"/>
-    <hyperlink ref="C73" r:id="rId78" display="mailto:test@email.com" xr:uid="{8785D0A2-5527-CC43-A7E7-B1D9C4214AA6}"/>
-    <hyperlink ref="C74" r:id="rId79" display="mailto:test@email.com" xr:uid="{8B35C20C-5016-6948-BA73-09B112457ACF}"/>
-    <hyperlink ref="C75" r:id="rId80" display="mailto:test@email.com" xr:uid="{5C3EC48C-9832-1B47-9D34-E318788E7D0D}"/>
-    <hyperlink ref="C76" r:id="rId81" display="mailto:test@email.com" xr:uid="{70E239A0-2353-6742-88C7-6C4F963B31AC}"/>
-    <hyperlink ref="C77" r:id="rId82" display="mailto:test@email.com" xr:uid="{DAA75110-9874-104A-A2C6-0F22D1F3401C}"/>
+    <hyperlink ref="C41" r:id="rId38" display="mailto:test@email.com" xr:uid="{575FF762-EB9D-DB45-8BAC-55069A40F14C}"/>
+    <hyperlink ref="C39" r:id="rId39" display="mailto:test@email.com" xr:uid="{C8B3BDCD-D191-3449-9315-095D53732AB5}"/>
+    <hyperlink ref="C50" r:id="rId40" display="mailto:test@email.com" xr:uid="{936FDA4A-AF04-2548-808B-8396555B0BF5}"/>
+    <hyperlink ref="C48" r:id="rId41" display="mailto:test@email.com" xr:uid="{4BEC560B-A05F-744B-BB4D-E6E1ED8056D0}"/>
+    <hyperlink ref="C44" r:id="rId42" display="mailto:test@email.com" xr:uid="{9622F532-DD74-6C4D-BE48-372E60B4A1E0}"/>
+    <hyperlink ref="C49" r:id="rId43" display="mailto:test@email.com" xr:uid="{E3435AEC-0C4A-4140-A197-2E66DBAF4F29}"/>
+    <hyperlink ref="C52" r:id="rId44" display="mailto:test@email.com" xr:uid="{EA456731-3C3D-304D-80D5-BAAEAA07B06A}"/>
+    <hyperlink ref="C45" r:id="rId45" display="mailto:test@email.com" xr:uid="{00F54B0F-3DCA-3D4C-A8BD-41F0B87FDE79}"/>
+    <hyperlink ref="C46" r:id="rId46" display="mailto:test@email.com" xr:uid="{92F0A6DB-A7C7-9247-AA30-B693C52FE667}"/>
+    <hyperlink ref="C51" r:id="rId47" display="mailto:test@email.com" xr:uid="{B4AFADC3-6A97-EA45-B0B5-DBD5F83623D7}"/>
+    <hyperlink ref="C43" r:id="rId48" display="mailto:test@email.com" xr:uid="{1FCD48BF-FEDC-C248-9B1D-C8E7C1561119}"/>
+    <hyperlink ref="C42" r:id="rId49" display="mailto:test@email.com" xr:uid="{8AA48E33-8D02-854F-869B-93D174255C83}"/>
+    <hyperlink ref="C54" r:id="rId50" display="mailto:test@email.com" xr:uid="{BA4F0837-CC0F-CB4C-A522-4A8DFA4C7090}"/>
+    <hyperlink ref="C53" r:id="rId51" display="mailto:test@email.com" xr:uid="{3B38E15D-95DF-C147-8E9B-F3DEE4C1D333}"/>
+    <hyperlink ref="C47" r:id="rId52" display="mailto:test@email.com" xr:uid="{9515FB9D-1E51-1A41-9405-FCB7A14BAF57}"/>
+    <hyperlink ref="D47" r:id="rId53" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{86259E9C-B550-7C40-B374-9652D80CD501}"/>
+    <hyperlink ref="C77" r:id="rId54" display="mailto:test@email.com" xr:uid="{E1286563-BEA8-634E-893C-35738F965078}"/>
+    <hyperlink ref="D77" r:id="rId55" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{B47938C3-00A9-E94C-BA86-5788FEB1F7B3}"/>
+    <hyperlink ref="C65" r:id="rId56" display="mailto:test@email.com" xr:uid="{3DF87A8E-7617-5C44-99FB-3C5A26C337DC}"/>
+    <hyperlink ref="D65" r:id="rId57" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{901A139E-5F88-2C4E-9475-337325733170}"/>
+    <hyperlink ref="C69" r:id="rId58" display="mailto:test@email.com" xr:uid="{1AA0566D-8BDA-D84E-B61B-D39628F48B62}"/>
+    <hyperlink ref="C75" r:id="rId59" display="mailto:test@email.com" xr:uid="{DA1E69C6-D65B-B245-8F8A-87CF86810A89}"/>
+    <hyperlink ref="C76" r:id="rId60" display="mailto:test@email.com" xr:uid="{4A5C1E17-AF26-1E41-81A7-80A2DA2D99A6}"/>
+    <hyperlink ref="D76" r:id="rId61" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{F0D93369-088C-AB47-A8AE-4EABC7383A84}"/>
+    <hyperlink ref="C60" r:id="rId62" display="mailto:test@email.com" xr:uid="{59F28D79-7F1B-ED4D-A6D8-2F1FCB72336A}"/>
+    <hyperlink ref="D60" r:id="rId63" display="mailto:deepak.chitkara@pilani.bits-pilani.ac.in" xr:uid="{3FC08CE4-F207-E547-BF6F-E3ACE66F92D9}"/>
+    <hyperlink ref="C56" r:id="rId64" display="mailto:test@email.com" xr:uid="{5AD1F817-474D-A745-9460-F3CA86AC1CFF}"/>
+    <hyperlink ref="D56" r:id="rId65" display="mailto:krzysztof.bartnik@wum.edu.pl" xr:uid="{8D87DAB6-70A5-524E-BA90-6C7ED368F187}"/>
+    <hyperlink ref="C68" r:id="rId66" display="mailto:test@email.com" xr:uid="{1313B23B-7E68-0643-A722-63D5918A04D7}"/>
+    <hyperlink ref="C55" r:id="rId67" display="mailto:test@email.com" xr:uid="{DEECA3DC-C3E8-F84B-A142-88E5B2FAEF73}"/>
+    <hyperlink ref="C67" r:id="rId68" display="mailto:test@email.com" xr:uid="{3B7FA7BC-FB5D-3D48-A8F9-943601B5BC45}"/>
+    <hyperlink ref="C70" r:id="rId69" display="mailto:test@email.com" xr:uid="{5505A470-FBF7-3244-A072-710DBAD1A791}"/>
+    <hyperlink ref="C83" r:id="rId70" display="mailto:test@email.com" xr:uid="{0DAADBED-C975-794F-826A-15F0C305166D}"/>
+    <hyperlink ref="C62" r:id="rId71" display="mailto:test@email.com" xr:uid="{23F780C5-A499-574B-B881-D95C6BF8FE4D}"/>
+    <hyperlink ref="C63" r:id="rId72" display="mailto:test@email.com" xr:uid="{65551331-3B58-714C-AD60-BCAB9B27EFB7}"/>
+    <hyperlink ref="C74" r:id="rId73" display="mailto:test@email.com" xr:uid="{ABAB13FD-1B34-0245-AD82-FB05F2A88B03}"/>
+    <hyperlink ref="C71" r:id="rId74" display="mailto:test@email.com" xr:uid="{ECE10F62-9138-6746-A651-45DD06B44A7D}"/>
+    <hyperlink ref="C64" r:id="rId75" display="mailto:test@email.com" xr:uid="{8A46270F-03C8-414A-9981-671EDF7EA515}"/>
+    <hyperlink ref="C58" r:id="rId76" display="mailto:test@email.com" xr:uid="{E657D74E-37F1-1D46-B098-589F4C0571BF}"/>
+    <hyperlink ref="C73" r:id="rId77" display="mailto:test@email.com" xr:uid="{B41F3327-17ED-214D-89EE-B0A76AF159E7}"/>
+    <hyperlink ref="C72" r:id="rId78" display="mailto:test@email.com" xr:uid="{8785D0A2-5527-CC43-A7E7-B1D9C4214AA6}"/>
+    <hyperlink ref="C59" r:id="rId79" display="mailto:test@email.com" xr:uid="{8B35C20C-5016-6948-BA73-09B112457ACF}"/>
+    <hyperlink ref="C61" r:id="rId80" display="mailto:test@email.com" xr:uid="{5C3EC48C-9832-1B47-9D34-E318788E7D0D}"/>
+    <hyperlink ref="C79" r:id="rId81" display="mailto:test@email.com" xr:uid="{70E239A0-2353-6742-88C7-6C4F963B31AC}"/>
+    <hyperlink ref="C82" r:id="rId82" display="mailto:test@email.com" xr:uid="{DAA75110-9874-104A-A2C6-0F22D1F3401C}"/>
     <hyperlink ref="C78" r:id="rId83" display="mailto:test@email.com" xr:uid="{35C2B1FB-F885-9E46-8D64-9BC862165E25}"/>
-    <hyperlink ref="C79" r:id="rId84" display="mailto:test@email.com" xr:uid="{EBA3B44D-6807-D846-9FBB-45C006AA0A1B}"/>
-    <hyperlink ref="C80" r:id="rId85" display="mailto:test@email.com" xr:uid="{7813B53F-4FF0-694A-BFB0-1DA836720CD5}"/>
-    <hyperlink ref="C81" r:id="rId86" display="mailto:test@email.com" xr:uid="{0E47F2AD-63E7-D144-B374-A734DD49E993}"/>
-    <hyperlink ref="C82" r:id="rId87" display="mailto:test@email.com" xr:uid="{C10DC44E-C223-2845-82CD-EBB0C93BC6DA}"/>
-    <hyperlink ref="C83" r:id="rId88" display="mailto:test@email.com" xr:uid="{7BD38AF3-293C-E942-AB14-48BE06FD8D6C}"/>
-    <hyperlink ref="C84" r:id="rId89" display="mailto:test@email.com" xr:uid="{7ADA7E48-CCAF-2648-80B3-04502F50383F}"/>
-    <hyperlink ref="C85" r:id="rId90" display="mailto:test@email.com" xr:uid="{D371D79A-A33A-4547-A66A-C7150A9F6B49}"/>
-    <hyperlink ref="C86" r:id="rId91" display="mailto:test@email.com" xr:uid="{699EB9B3-36C5-7E40-847E-693E24628F1E}"/>
-    <hyperlink ref="C87" r:id="rId92" display="mailto:test@email.com" xr:uid="{C2B27721-3767-1F4F-90B6-5D7DAF39D8E8}"/>
-    <hyperlink ref="D87" r:id="rId93" display="mailto:klamt@mpi-magdeburg.mpg.de" xr:uid="{BC638DBB-23A8-C24C-9893-B492D5237EF3}"/>
-    <hyperlink ref="C88" r:id="rId94" display="mailto:test@email.com" xr:uid="{FC8DCC4D-62B5-4448-9433-25EB0B837A41}"/>
-    <hyperlink ref="C89" r:id="rId95" display="mailto:test@email.com" xr:uid="{CE6C913D-59EB-EC46-81E6-725B8A3A8F8F}"/>
+    <hyperlink ref="C57" r:id="rId84" display="mailto:test@email.com" xr:uid="{EBA3B44D-6807-D846-9FBB-45C006AA0A1B}"/>
+    <hyperlink ref="C81" r:id="rId85" display="mailto:test@email.com" xr:uid="{7813B53F-4FF0-694A-BFB0-1DA836720CD5}"/>
+    <hyperlink ref="C80" r:id="rId86" display="mailto:test@email.com" xr:uid="{C10DC44E-C223-2845-82CD-EBB0C93BC6DA}"/>
+    <hyperlink ref="C84" r:id="rId87" display="mailto:test@email.com" xr:uid="{7ADA7E48-CCAF-2648-80B3-04502F50383F}"/>
+    <hyperlink ref="C66" r:id="rId88" display="mailto:test@email.com" xr:uid="{699EB9B3-36C5-7E40-847E-693E24628F1E}"/>
+    <hyperlink ref="C40" r:id="rId89" display="mailto:test@email.com" xr:uid="{FC8DCC4D-62B5-4448-9433-25EB0B837A41}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
